--- a/biology/Botanique/Jardin_de_l'horticulture_de_Florence/Jardin_de_l'horticulture_de_Florence.xlsx
+++ b/biology/Botanique/Jardin_de_l'horticulture_de_Florence/Jardin_de_l'horticulture_de_Florence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27horticulture_de_Florence</t>
+          <t>Jardin_de_l'horticulture_de_Florence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin de l'horticulture de Florence (en italien, giardino dell'Orticultura) est un jardin horticole situé à Florence.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27horticulture_de_Florence</t>
+          <t>Jardin_de_l'horticulture_de_Florence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire et architecture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1852, constatant la diffusion de la pratique de l'art du jardinage, l'Accademia dei Georgofili nomma une commission chargée de former une société horticole en Toscane : la Société toscane d'horticulture. D'où la nécessité de créer un potager ou jardin expérimental, qui se matérialisa en 1859, année où la Société obtint un bail sur un terrain situé à l'extérieur de la porte San Gallo, au début de la via Bolognese, appartenant au marquis Ludovico Ginori Lisci et à la marquise Marianna Venturi.
 Après trois ans de travaux, la Société avait réalisé des plantations, un vignoble et un pomerium et avait planté des plantes ornementales excentriques et rares dans la partie basse, vers la ville.
